--- a/flask-server-client/flask-server/naver_price.xlsx
+++ b/flask-server-client/flask-server/naver_price.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="219">
   <si>
     <t>상품명</t>
   </si>
@@ -64,507 +64,626 @@
     <t>Depth4</t>
   </si>
   <si>
-    <t>아토오겔 신생아 베이비 유아 보습크림 고보습 아기 크림 1+1</t>
-  </si>
-  <si>
-    <t>[1+1] 몽디에스 아기 신생아 베이비 유아 고보습 민감 건조 얼굴 보습 기저귀 아토크림 240ml</t>
-  </si>
-  <si>
-    <t>[아토앤오투] 옥시젠 세라오 찐보습 순한 유아 크림 160g 2개세트</t>
-  </si>
-  <si>
-    <t>[유트루PICK]아비노베이비 더멕사 아토 나이트타임 밤 312g x1개</t>
-  </si>
-  <si>
-    <t>보타니컬테라피 리프세라 대용량 신생아 아기 베이비 크림 200ml 무향</t>
-  </si>
-  <si>
-    <t>[알러지 테스트 26종 완료] 아토바이옴 데일리 크림(보습크림) 200ml</t>
-  </si>
-  <si>
-    <t>코코힐리 유아 어린이 고보습 크림 팩트 화장품 선물세트 크림팡 리필 22g</t>
-  </si>
-  <si>
-    <t>그린핑거 힘센보습 인텐시브 크림 500ml, 1개</t>
-  </si>
-  <si>
-    <t>[1+1] 타가 비건 아토크림 아기 민감피부 저자극 침독 태열 고보습 크림 250ml</t>
-  </si>
-  <si>
-    <t>메디셀바이오 아토 에센셜 퍼펙트 크림 100ml 4가지 생약성분 보습 장벽강화 유수분밸런스조절 /ATP 에이티피 네추럴 크림(100ml) 리뉴얼</t>
-  </si>
-  <si>
-    <t>이드라베베 페이셜 크림 40ml (수분크림)</t>
-  </si>
-  <si>
-    <t>베이비 크림 280g / 유아 크림 / 고보습 크림 / 72시간 보습력 테스트 완료</t>
-  </si>
-  <si>
-    <t>아토팜 판테놀 크림 고농축 판테놀 10% 함유 진정 좋은 보습 크림</t>
-  </si>
-  <si>
-    <t>(비건) 아이아움 플레인 베이비 아기 크림 120ml 영유아 신생아 페이스 바디 약산성 화장품</t>
-  </si>
-  <si>
-    <t>허긴 신생아 아기 인텐시브 100시간 보습 아토 크림 (무향) 200ml, 1개</t>
-  </si>
-  <si>
-    <t>[1+1] 머머 판테놀 시카크림 50ml (피부장벽개선 약산성 궁디진정크림)</t>
-  </si>
-  <si>
-    <t>비더마틱 비건 유아 울트라 딥 모이스처 크림 200ml</t>
-  </si>
-  <si>
-    <t>그린핑거 힘센보습 인텐시브 크림 300g x 2개</t>
-  </si>
-  <si>
-    <t>2+2 피부면역력강화 전체 연령사용 아토카렌 카렌듈라 프리미엄 올인원 에센스로션+워시 (무료배송)</t>
-  </si>
-  <si>
-    <t>벨레다 카렌듈라 올 퍼포스 밤 25g</t>
-  </si>
-  <si>
-    <t>플러스셀라 마이엔젤 베이비 크림 (신생아 유아로션 키즈 어린이 베이비로션)</t>
-  </si>
-  <si>
-    <t>오붓 맘&amp;베이비 소프트 크림 가려움▼ 보습▲ 피부장벽▲ 100ml, 2개</t>
-  </si>
-  <si>
-    <t>코코힐리 어린이 유아 조카선물 보습팩트 미니팡팩트 10.5g</t>
-  </si>
-  <si>
-    <t>유아 스틱밤 립밤 피톤 진정 보습 아기 침 신생아 베이비 16.5g+16.5g</t>
-  </si>
-  <si>
-    <t>하우파파 아토 쿨링 아기스틱밤 12g</t>
-  </si>
-  <si>
-    <t>어네이브 더마 트러블 베이비 고보습 크림 아기 유아 보습 저자극 120ml*2</t>
-  </si>
-  <si>
-    <t>[오이보스공식] 베이비 집중크림 50ml X 2개</t>
-  </si>
-  <si>
-    <t>뉴노토 보습크림 150g 1개 유아크림 유아로션 보습크림 노토피크림</t>
-  </si>
-  <si>
-    <t>홀츠베베 베이비 밤 크림 30ml 아기침독 기저귀 보습 진정 피부보호</t>
-  </si>
-  <si>
-    <t>[집중보습] 프라젠트라 베이비 크림 Plus 500ml, 1개</t>
-  </si>
-  <si>
-    <t>아비노 아기 고보습 바디크림 더멕사 아토 나이트타임 밤 312g X 3개입</t>
-  </si>
-  <si>
-    <t>[1+1] 루이루이 멀티밤 유아침독 집중보습크림</t>
-  </si>
-  <si>
-    <t>32000원</t>
-  </si>
-  <si>
-    <t>35100원</t>
-  </si>
-  <si>
-    <t>59000원</t>
-  </si>
-  <si>
-    <t>26600원</t>
+    <t>쿤달 허니 앤 마카다미아 네이처 샴푸 500ml 베이비파우더</t>
+  </si>
+  <si>
+    <t>[바론] 모링가 샴푸 리페어링 샴푸 500g</t>
+  </si>
+  <si>
+    <t>바디브 약산성 샴푸 1000ml 대용량 비듬 천연 유래 청소년 사춘기 초등학생 머리 퍼퓸 향기좋은 두피 가려움 지성 정수리 냄새 베이베리오차드향</t>
+  </si>
+  <si>
+    <t>1+1 살림백서 천연 지수81% 샴푸 500ml 약산성 퍼퓸 비듬 향기좋은 사춘기 청소년 초등학생 지성 두피 정수리냄새 대용량 오푼티아 밤부 베이비파우더향</t>
+  </si>
+  <si>
+    <t>동구밭 올바른 고체 샴푸바 중건성용 95g</t>
+  </si>
+  <si>
+    <t>[2개] 나드 대용량 시그니처 샴푸 1,000ml 저자극 단백질 손상모 케어 외 3종 택 2</t>
+  </si>
+  <si>
+    <t>애프터스윔 수영장 샴푸&amp;바디워시 500ml - 수영샴푸 염소 케어</t>
+  </si>
+  <si>
+    <t>쿤달 네이처 샴푸 500ml 2개 + 100ml 2개</t>
+  </si>
+  <si>
+    <t>NEW 츠바키 프리미엄 볼륨 &amp; 리페어 샴푸 + 샴푸</t>
+  </si>
+  <si>
+    <t>아모스 녹차실감 샴푸액 500g 지성(산뜻한 타입)</t>
+  </si>
+  <si>
+    <t>닥터지 두피랩 쿨 솔트 스케일링 샴푸 아로마향, 500ml, 6개</t>
+  </si>
+  <si>
+    <t>청미정 다시마 샴푸&amp;트리트먼트 set</t>
+  </si>
+  <si>
+    <t>엘라스틴 프로틴클리닉 10000 단백질 고영양 샴푸 1000ml</t>
+  </si>
+  <si>
+    <t>[BEST][봄맞이 1+1] 두피청정샴푸 2.0</t>
+  </si>
+  <si>
+    <t>[샴+트]엘라스틴 프로틴클리닉 샴푸1000ml 1개+트리트먼트700ml 1개</t>
+  </si>
+  <si>
+    <t>케라시스 퍼퓸 체리블라썸 1LX2개(샴푸1,린스1) + 샴푸180mlX2개</t>
+  </si>
+  <si>
+    <t>나드 대용량 샴푸 1,000ml 시그니처 향 1개입</t>
+  </si>
+  <si>
+    <t>[네이처리퍼블릭] 블랙빈 탈모증상 완화 샴푸 300ml</t>
+  </si>
+  <si>
+    <t>루트 부스터 S.E 샴푸</t>
+  </si>
+  <si>
+    <t>더바디샵 진저 스켈프 케어 샴푸 400ml</t>
+  </si>
+  <si>
+    <t>아윤채 리밸런싱 샴푸 500g [프레시]</t>
+  </si>
+  <si>
+    <t>토니모리 튠나인 내추럴 체인지 컬러샴푸 300g</t>
+  </si>
+  <si>
+    <t>레베코코48K 샴푸 255ml 비듬 각질 항균 지루성 두피 염 색 손 상 저자극 가려움 뾰루지</t>
+  </si>
+  <si>
+    <t>(유럽형정품) 폴텐 지루성두피 비듬샴푸</t>
+  </si>
+  <si>
+    <t>엘라스틴 퍼퓸 러브미 샴푸 600ml</t>
+  </si>
+  <si>
+    <t>톤28 샴푸바 S21 검은콩 100g (얇은모발) 비건 약산성</t>
+  </si>
+  <si>
+    <t>더블모 어성초 샴푸 1000ml</t>
+  </si>
+  <si>
+    <t>헤어플러스 단백질 본드 샴푸 1000ml(신형)</t>
+  </si>
+  <si>
+    <t>[키렌] 자연유래성분 약산성 천연샴푸/헤어트리트먼트 1+1</t>
+  </si>
+  <si>
+    <t>미쟝센 살롱10 단백질 대용량 샴푸 손상모 990ml</t>
+  </si>
+  <si>
+    <t>팬틴 샴푸 1.2L 대용량 2개 극손상케어 약산성 청소년 사춘기 초등학생 비듬 지성 향기좋은 퍼퓸 머리 두피 정수리 냄새 미용실 펜틴</t>
+  </si>
+  <si>
+    <t>아로마티카 로즈마리 스칼프 스케일링 샴푸 400ml</t>
+  </si>
+  <si>
+    <t>레삐 내추럴 퓨어 손상모발 샴푸 1000ml</t>
+  </si>
+  <si>
+    <t>도브 인텐스 리페어 샴푸 680ml</t>
+  </si>
+  <si>
+    <t>10400원</t>
+  </si>
+  <si>
+    <t>9900원</t>
+  </si>
+  <si>
+    <t>14900원</t>
+  </si>
+  <si>
+    <t>9020원</t>
+  </si>
+  <si>
+    <t>21900원</t>
+  </si>
+  <si>
+    <t>39700원</t>
+  </si>
+  <si>
+    <t>32800원</t>
+  </si>
+  <si>
+    <t>26900원</t>
+  </si>
+  <si>
+    <t>14490원</t>
+  </si>
+  <si>
+    <t>89320원</t>
+  </si>
+  <si>
+    <t>57000원</t>
+  </si>
+  <si>
+    <t>8100원</t>
   </si>
   <si>
     <t>19900원</t>
   </si>
   <si>
-    <t>23000원</t>
-  </si>
-  <si>
-    <t>18000원</t>
-  </si>
-  <si>
-    <t>14400원</t>
-  </si>
-  <si>
-    <t>28700원</t>
-  </si>
-  <si>
-    <t>30000원</t>
-  </si>
-  <si>
-    <t>12800원</t>
-  </si>
-  <si>
-    <t>16400원</t>
-  </si>
-  <si>
-    <t>23800원</t>
-  </si>
-  <si>
-    <t>24300원</t>
-  </si>
-  <si>
-    <t>14500원</t>
-  </si>
-  <si>
-    <t>17900원</t>
-  </si>
-  <si>
-    <t>20900원</t>
-  </si>
-  <si>
-    <t>43590원</t>
-  </si>
-  <si>
-    <t>99000원</t>
-  </si>
-  <si>
-    <t>12000원</t>
-  </si>
-  <si>
-    <t>30240원</t>
-  </si>
-  <si>
-    <t>28000원</t>
-  </si>
-  <si>
-    <t>39800원</t>
-  </si>
-  <si>
-    <t>23900원</t>
-  </si>
-  <si>
-    <t>42500원</t>
+    <t>18900원</t>
+  </si>
+  <si>
+    <t>15900원</t>
+  </si>
+  <si>
+    <t>12900원</t>
+  </si>
+  <si>
+    <t>13200원</t>
+  </si>
+  <si>
+    <t>25000원</t>
+  </si>
+  <si>
+    <t>17490원</t>
+  </si>
+  <si>
+    <t>46000원</t>
+  </si>
+  <si>
+    <t>84000원</t>
   </si>
   <si>
     <t>25900원</t>
   </si>
   <si>
-    <t>5000원</t>
-  </si>
-  <si>
-    <t>18800원</t>
-  </si>
-  <si>
-    <t>57950원</t>
-  </si>
-  <si>
-    <t>35840원</t>
-  </si>
-  <si>
-    <t>160g</t>
+    <t>32200원</t>
+  </si>
+  <si>
+    <t>5130원</t>
+  </si>
+  <si>
+    <t>9350원</t>
+  </si>
+  <si>
+    <t>9160원</t>
+  </si>
+  <si>
+    <t>17180원</t>
+  </si>
+  <si>
+    <t>16900원</t>
+  </si>
+  <si>
+    <t>16990원</t>
+  </si>
+  <si>
+    <t>14690원</t>
+  </si>
+  <si>
+    <t>50000원</t>
+  </si>
+  <si>
+    <t>4180원</t>
+  </si>
+  <si>
+    <t>500ml(g)</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>정보 없음</t>
   </si>
   <si>
     <t>500g</t>
   </si>
   <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>100ml</t>
-  </si>
-  <si>
-    <t>200ml</t>
-  </si>
-  <si>
-    <t>120ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>150g</t>
+    <t>1000ml</t>
+  </si>
+  <si>
+    <t>1l</t>
+  </si>
+  <si>
+    <t>680ml(g)</t>
+  </si>
+  <si>
+    <t>850ml(g)</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>9,321</t>
-  </si>
-  <si>
-    <t>8,954</t>
-  </si>
-  <si>
-    <t>1.5만</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>9,934</t>
+  </si>
+  <si>
+    <t>9,905</t>
+  </si>
+  <si>
+    <t>9,833</t>
+  </si>
+  <si>
+    <t>9,145</t>
+  </si>
+  <si>
+    <t>9,137</t>
+  </si>
+  <si>
+    <t>7,570</t>
+  </si>
+  <si>
+    <t>7,527</t>
+  </si>
+  <si>
+    <t>6,579</t>
+  </si>
+  <si>
+    <t>6,575</t>
+  </si>
+  <si>
+    <t>6,550</t>
+  </si>
+  <si>
+    <t>6,020</t>
+  </si>
+  <si>
+    <t>5,968</t>
+  </si>
+  <si>
+    <t>5,962</t>
+  </si>
+  <si>
+    <t>5,321</t>
+  </si>
+  <si>
+    <t>5,314</t>
+  </si>
+  <si>
+    <t>5,307</t>
+  </si>
+  <si>
+    <t>5,274</t>
+  </si>
+  <si>
+    <t>5,236</t>
+  </si>
+  <si>
+    <t>5,225</t>
+  </si>
+  <si>
+    <t>5,179</t>
+  </si>
+  <si>
+    <t>5,150</t>
+  </si>
+  <si>
+    <t>1,594</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>3.2만</t>
+  </si>
+  <si>
+    <t>7,375</t>
+  </si>
+  <si>
+    <t>1,039</t>
+  </si>
+  <si>
+    <t>1,195</t>
+  </si>
+  <si>
+    <t>5,205</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>1,648</t>
+  </si>
+  <si>
+    <t>2,314</t>
+  </si>
+  <si>
+    <t>1,820</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>3,392</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2,397</t>
+  </si>
+  <si>
+    <t>2,988</t>
+  </si>
+  <si>
+    <t>1,728</t>
+  </si>
+  <si>
+    <t>2024.01.</t>
+  </si>
+  <si>
+    <t>2017.06.</t>
+  </si>
+  <si>
+    <t>2019.02.</t>
+  </si>
+  <si>
+    <t>2021.04.</t>
+  </si>
+  <si>
+    <t>2020.12.</t>
+  </si>
+  <si>
+    <t>2020.10.</t>
+  </si>
+  <si>
+    <t>2018.07.</t>
+  </si>
+  <si>
+    <t>2024.02.</t>
+  </si>
+  <si>
+    <t>2019.07.</t>
+  </si>
+  <si>
+    <t>2017.09.</t>
+  </si>
+  <si>
+    <t>2023.12.</t>
+  </si>
+  <si>
+    <t>2025.03.</t>
+  </si>
+  <si>
+    <t>2018.05.</t>
+  </si>
+  <si>
+    <t>2022.02.</t>
+  </si>
+  <si>
+    <t>2022.09.</t>
+  </si>
+  <si>
+    <t>2021.12.</t>
+  </si>
+  <si>
+    <t>2020.07.</t>
+  </si>
+  <si>
+    <t>2018.03.</t>
+  </si>
+  <si>
+    <t>2018.02.</t>
+  </si>
+  <si>
+    <t>2018.12.</t>
+  </si>
+  <si>
+    <t>2017.08.</t>
+  </si>
+  <si>
+    <t>2021.03.</t>
+  </si>
+  <si>
+    <t>2022.04.</t>
+  </si>
+  <si>
+    <t>2019.09.</t>
+  </si>
+  <si>
+    <t>2013.02.</t>
+  </si>
+  <si>
+    <t>2021.05.</t>
+  </si>
+  <si>
+    <t>2022.06.</t>
+  </si>
+  <si>
+    <t>2017.12.</t>
   </si>
   <si>
     <t>2018.06.</t>
   </si>
   <si>
-    <t>2021.12.</t>
-  </si>
-  <si>
-    <t>2014.04.</t>
-  </si>
-  <si>
-    <t>2022.05.</t>
-  </si>
-  <si>
-    <t>2017.09.</t>
-  </si>
-  <si>
-    <t>2023.07.</t>
-  </si>
-  <si>
-    <t>2023.04.</t>
-  </si>
-  <si>
-    <t>2023.05.</t>
-  </si>
-  <si>
-    <t>2024.08.</t>
-  </si>
-  <si>
-    <t>2020.10.</t>
-  </si>
-  <si>
-    <t>2022.12.</t>
-  </si>
-  <si>
-    <t>2023.02.</t>
-  </si>
-  <si>
-    <t>2023.09.</t>
-  </si>
-  <si>
     <t>2021.11.</t>
   </si>
   <si>
-    <t>2023.03.</t>
-  </si>
-  <si>
-    <t>2021.01.</t>
-  </si>
-  <si>
-    <t>2025.01.</t>
-  </si>
-  <si>
-    <t>2024.01.</t>
-  </si>
-  <si>
-    <t>2022.07.</t>
-  </si>
-  <si>
-    <t>2022.11.</t>
-  </si>
-  <si>
-    <t>2017.10.</t>
-  </si>
-  <si>
-    <t>2022.10.</t>
-  </si>
-  <si>
-    <t>2023.12.</t>
+    <t>2020.05.</t>
   </si>
   <si>
     <t>0원</t>
   </si>
   <si>
+    <t>무료</t>
+  </si>
+  <si>
     <t>3,000원</t>
   </si>
   <si>
-    <t>무료</t>
+    <t>4,000원</t>
+  </si>
+  <si>
+    <t>2,800원</t>
   </si>
   <si>
     <t>2,500원</t>
   </si>
   <si>
-    <t>아토오겔</t>
-  </si>
-  <si>
-    <t>몽디에스</t>
-  </si>
-  <si>
-    <t>아토앤오투</t>
-  </si>
-  <si>
-    <t>켄뷰 공식몰</t>
-  </si>
-  <si>
-    <t>위틀스토어</t>
-  </si>
-  <si>
-    <t>제로시피</t>
-  </si>
-  <si>
-    <t>cocoheali</t>
-  </si>
-  <si>
-    <t>디엔마트 DN
+    <t>3,900원</t>
+  </si>
+  <si>
+    <t>쿤달</t>
+  </si>
+  <si>
+    <t>쿤달 KUNDAL</t>
+  </si>
+  <si>
+    <t>바이원코스메틱</t>
+  </si>
+  <si>
+    <t>바디브</t>
+  </si>
+  <si>
+    <t>살림백서</t>
+  </si>
+  <si>
+    <t>동구밭</t>
+  </si>
+  <si>
+    <t>NARD</t>
+  </si>
+  <si>
+    <t>AFTER SWIM</t>
+  </si>
+  <si>
+    <t>센카 TISS 공식판매처</t>
+  </si>
+  <si>
+    <t>weclick</t>
+  </si>
+  <si>
+    <t>템스윈공식몰
 네이버플러스멤버십
-14,400</t>
-  </si>
-  <si>
-    <t>타가 공식몰</t>
-  </si>
-  <si>
-    <t>메디셀바이오</t>
-  </si>
-  <si>
-    <t>무스텔라</t>
-  </si>
-  <si>
-    <t>밀크바오밥 베이비</t>
-  </si>
-  <si>
-    <t>수앤아이</t>
-  </si>
-  <si>
-    <t>아이아움</t>
-  </si>
-  <si>
-    <t>마더케이</t>
-  </si>
-  <si>
-    <t>머머</t>
-  </si>
-  <si>
-    <t>디밤비</t>
-  </si>
-  <si>
-    <t>유에스티몰</t>
-  </si>
-  <si>
-    <t>아기나무본사</t>
-  </si>
-  <si>
-    <t>벨레다 공식스토어</t>
-  </si>
-  <si>
-    <t>플러스 셀라</t>
-  </si>
-  <si>
-    <t>꼼마꼼마</t>
-  </si>
-  <si>
-    <t>아토몽드</t>
-  </si>
-  <si>
-    <t>하우파파 공식스토어</t>
-  </si>
-  <si>
-    <t>쁘띠엘린스토어</t>
-  </si>
-  <si>
-    <t>오이보스</t>
-  </si>
-  <si>
-    <t>에스메디</t>
-  </si>
-  <si>
-    <t>쇼핑베토벤</t>
-  </si>
-  <si>
-    <t>프라젠트라 공식 스토어</t>
-  </si>
-  <si>
-    <t>원더윅스실버</t>
-  </si>
-  <si>
-    <t>루이루이 LOUILOUI</t>
-  </si>
-  <si>
-    <t>정보 없음</t>
-  </si>
-  <si>
-    <t>피부진정</t>
-  </si>
-  <si>
-    <t>수분공급</t>
-  </si>
-  <si>
-    <t>튜브형</t>
-  </si>
-  <si>
-    <t>캡형</t>
-  </si>
-  <si>
-    <t>용기형</t>
-  </si>
-  <si>
-    <t>펌프형</t>
-  </si>
-  <si>
-    <t>쿠션형</t>
-  </si>
-  <si>
-    <t>스틱형</t>
-  </si>
-  <si>
-    <t>콤팩트형</t>
-  </si>
-  <si>
-    <t>출산/육아</t>
-  </si>
-  <si>
-    <t>스킨/바디용품</t>
-  </si>
-  <si>
-    <t>유아크림</t>
+89,320</t>
+  </si>
+  <si>
+    <t>청미정</t>
+  </si>
+  <si>
+    <t>G마켓
+8,100</t>
+  </si>
+  <si>
+    <t>메디올</t>
+  </si>
+  <si>
+    <t>LG생활건강 공식 스토어</t>
+  </si>
+  <si>
+    <t>애경본사직영몰</t>
+  </si>
+  <si>
+    <t>네이처리퍼블릭</t>
+  </si>
+  <si>
+    <t>그라펜</t>
+  </si>
+  <si>
+    <t>수기하우스
+네이버플러스멤버십
+17,490</t>
+  </si>
+  <si>
+    <t>아윤채 본사직영몰</t>
+  </si>
+  <si>
+    <t>토니모리공식쇼핑몰</t>
+  </si>
+  <si>
+    <t>레베코코</t>
+  </si>
+  <si>
+    <t>폴텐코리아</t>
+  </si>
+  <si>
+    <t>G마켓
+5,130</t>
+  </si>
+  <si>
+    <t>톤28</t>
+  </si>
+  <si>
+    <t>G마켓
+9,160</t>
+  </si>
+  <si>
+    <t>다사마트
+네이버플러스멤버십
+17,180</t>
+  </si>
+  <si>
+    <t>키렌</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽몰 헤어바디</t>
+  </si>
+  <si>
+    <t>티에스shop</t>
+  </si>
+  <si>
+    <t>SSF샵
+네이버페이
+14,690</t>
+  </si>
+  <si>
+    <t>레삐</t>
+  </si>
+  <si>
+    <t>뷰티모아컴퍼니
+네이버플러스멤버십
+4,180</t>
+  </si>
+  <si>
+    <t>볼륨효과</t>
+  </si>
+  <si>
+    <t>주요제품 세정력, 세부제품 저자극</t>
+  </si>
+  <si>
+    <t>주요제품 머릿결개선, 세부제품 상쾌함</t>
+  </si>
+  <si>
+    <t>주요제품 머릿결개선</t>
+  </si>
+  <si>
+    <t>주요제품 머릿결개선, 세부제품 저자극</t>
+  </si>
+  <si>
+    <t>주요제품 머릿결개선, 세부제품 촉촉함(수분공급)</t>
+  </si>
+  <si>
+    <t>주요제품 머릿결개선, 세부제품 각질케어</t>
+  </si>
+  <si>
+    <t>주요제품 세정력</t>
+  </si>
+  <si>
+    <t>주요제품 세정력, 세부제품 상쾌함</t>
+  </si>
+  <si>
+    <t>주요제품 세정력, 세부제품 촉촉함(수분공급)</t>
+  </si>
+  <si>
+    <t>세부제품 비듬케어</t>
+  </si>
+  <si>
+    <t>주요제품 머릿결개선, 세부제품 모발영양</t>
+  </si>
+  <si>
+    <t>화장품/미용</t>
+  </si>
+  <si>
+    <t>헤어케어</t>
+  </si>
+  <si>
+    <t>샴푸</t>
+  </si>
+  <si>
+    <t>헤어케어세트</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -983,1503 +1102,1731 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N2" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O3" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N4" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O4" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N5" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O5" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N6" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O6" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N7" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O7" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="L8" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N8" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="L9" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N9" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N10" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O10" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="L11" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N11" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O11" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N12" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O12" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L13" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N13" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O13" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N14" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O14" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O15" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O16" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O17" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O18" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="M20" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="M21" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O21" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="M22" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M23" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H25" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M27" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N27" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="J28" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N28" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H29" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="J29" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="K29" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N29" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="H30" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N30" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="J31" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="M31" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N31" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
         <v>90</v>
       </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H32" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="O32" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" t="s">
+        <v>215</v>
+      </c>
+      <c r="N33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O33" t="s">
+        <v>217</v>
+      </c>
+      <c r="P33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N34" t="s">
+        <v>216</v>
+      </c>
+      <c r="O34" t="s">
+        <v>217</v>
+      </c>
+      <c r="P34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" t="s">
+        <v>215</v>
+      </c>
+      <c r="N35" t="s">
+        <v>216</v>
+      </c>
+      <c r="O35" t="s">
+        <v>217</v>
+      </c>
+      <c r="P35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" t="s">
+        <v>215</v>
+      </c>
+      <c r="N36" t="s">
+        <v>216</v>
+      </c>
+      <c r="O36" t="s">
+        <v>217</v>
+      </c>
+      <c r="P36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" t="s">
-        <v>170</v>
-      </c>
-      <c r="K33" t="s">
-        <v>171</v>
-      </c>
-      <c r="L33" t="s">
-        <v>173</v>
-      </c>
-      <c r="M33" t="s">
-        <v>180</v>
-      </c>
-      <c r="N33" t="s">
-        <v>181</v>
-      </c>
-      <c r="O33" t="s">
-        <v>182</v>
-      </c>
-      <c r="P33" t="s">
-        <v>170</v>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" t="s">
+        <v>212</v>
+      </c>
+      <c r="L37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" t="s">
+        <v>215</v>
+      </c>
+      <c r="N37" t="s">
+        <v>216</v>
+      </c>
+      <c r="O37" t="s">
+        <v>217</v>
+      </c>
+      <c r="P37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" t="s">
+        <v>201</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" t="s">
+        <v>215</v>
+      </c>
+      <c r="N38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" t="s">
+        <v>216</v>
+      </c>
+      <c r="O39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P39" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
